--- a/try.xlsx
+++ b/try.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\workspace\kfintech\RealEstateAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB88E368-BBE1-4175-81B4-5C5AA1CBAAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8254CBA-BDEB-4205-B72C-922CEEF43EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F060D7B3-12F6-4DB7-86F4-078299BC4723}"/>
+    <workbookView xWindow="1740" yWindow="2832" windowWidth="19200" windowHeight="8520" xr2:uid="{F060D7B3-12F6-4DB7-86F4-078299BC4723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>sqm</t>
   </si>
@@ -39,12 +39,6 @@
     <t>fUua1y7a2g</t>
   </si>
   <si>
-    <t>price/sqm</t>
-  </si>
-  <si>
-    <t>price (tsd)</t>
-  </si>
-  <si>
     <t>qSa6sHsbyG</t>
   </si>
   <si>
@@ -54,22 +48,25 @@
     <t>uvv13KpvTc-001</t>
   </si>
   <si>
-    <t>vroutou 12</t>
-  </si>
-  <si>
     <t>Rb1G4L5iq7</t>
   </si>
   <si>
-    <t>28 Ekfantidou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Avramiotou 7</t>
-  </si>
-  <si>
-    <t>27 Vasileos Konstantinou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85 DEINOKRATOUS </t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>27 Vasileos Konstantinou, athens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avramiotou 7, athens</t>
+  </si>
+  <si>
+    <t>85 DEINOKRATOUS, athens</t>
+  </si>
+  <si>
+    <t>vroutou 12, athens</t>
+  </si>
+  <si>
+    <t>28 Ekfantidou, athens</t>
   </si>
 </sst>
 </file>
@@ -135,14 +132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11028EA-133F-4E0A-9CAB-461343AB029F}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +464,7 @@
     <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -476,492 +472,81 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>915</v>
+        <v>915000</v>
       </c>
       <c r="D2">
         <v>259.2</v>
       </c>
-      <c r="E2">
-        <f>1000*C2/D2</f>
-        <v>3530.0925925925926</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>480.6</v>
+        <v>480600</v>
       </c>
       <c r="D3">
         <v>548.52</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">1000*C3/D3</f>
-        <v>876.17589148982722</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>607.23</v>
+        <v>607230</v>
       </c>
       <c r="D4">
         <v>134.94</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>4500</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>334.54</v>
+        <v>334540</v>
       </c>
       <c r="D5">
         <v>250</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1338.16</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>264</v>
+        <v>264000</v>
       </c>
       <c r="D6">
         <v>98</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>2693.8775510204082</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-    </row>
-    <row r="37" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-    </row>
-    <row r="38" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-    </row>
-    <row r="39" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-    </row>
-    <row r="40" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/try.xlsx
+++ b/try.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\workspace\kfintech\RealEstateAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8254CBA-BDEB-4205-B72C-922CEEF43EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8174AD7-22CC-4738-A424-03A31E424A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="2832" windowWidth="19200" windowHeight="8520" xr2:uid="{F060D7B3-12F6-4DB7-86F4-078299BC4723}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F060D7B3-12F6-4DB7-86F4-078299BC4723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,7 +489,7 @@
         <v>915000</v>
       </c>
       <c r="D2">
-        <v>259.2</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -503,7 +503,7 @@
         <v>480600</v>
       </c>
       <c r="D3">
-        <v>548.52</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
         <v>607230</v>
       </c>
       <c r="D4">
-        <v>134.94</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
